--- a/pearson_tables/t2m_netherlands-3-11.xlsx
+++ b/pearson_tables/t2m_netherlands-3-11.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5613278117647982</v>
+        <v>0.5611346983557807</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6120858455261017</v>
+        <v>-0.6242536099627518</v>
       </c>
       <c r="D2" t="n">
-        <v>0.504695908152337</v>
+        <v>0.5082040332081577</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6932160565317439</v>
+        <v>-0.6761097870911426</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6337855058618115</v>
+        <v>-0.6533155315349959</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6279384717225801</v>
+        <v>-0.6302161934269627</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7754188571105025</v>
+        <v>0.7697467008299035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6122164759630461</v>
+        <v>-0.6195852097269362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.675315985998557</v>
+        <v>0.6822729943094337</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5639069089512547</v>
+        <v>-0.559148887524349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6755067345236151</v>
+        <v>0.6724377503136852</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7725967828958979</v>
+        <v>0.6855731720921452</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5895007593640776</v>
+        <v>-0.5711540419562121</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6692478943086437</v>
+        <v>0.5945815665727221</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6670732320697609</v>
+        <v>-0.6857643802455191</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7178684431607096</v>
+        <v>0.7150708283385313</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7097679134431789</v>
+        <v>-0.7073208358945109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196734525746854</v>
+        <v>0.7847531275613041</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6822939032683798</v>
+        <v>-0.7061689258161673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7996622735847522</v>
+        <v>0.8013238183578082</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7950542688535756</v>
+        <v>-0.8102030208510096</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5950683485388552</v>
+        <v>-0.6183026900085103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6145073852158691</v>
+        <v>0.6171546141700381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6338551009518709</v>
+        <v>-0.6380200697984402</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-11.xlsx
+++ b/pearson_tables/t2m_netherlands-3-11.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5611346983557807</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6242536099627518</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5082040332081577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6761097870911426</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6533155315349959</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6302161934269627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7697467008299035</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6195852097269362</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6822729943094337</v>
+        <v>-0.6727554909559251</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.559148887524349</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6724377503136852</v>
+        <v>0.7201281033363175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6855731720921452</v>
+        <v>-0.7501789147931492</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5711540419562121</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5945815665727221</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6857643802455191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7150708283385313</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7073208358945109</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7847531275613041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7061689258161673</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8013238183578082</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8102030208510096</v>
+        <v>-0.8147022851187192</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6183026900085103</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6171546141700381</v>
+        <v>0.6255382897778456</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6380200697984402</v>
+        <v>-0.6569424854293864</v>
       </c>
     </row>
   </sheetData>
